--- a/HRMS/MstEmployeeTargetSyllabusSectionWisePerformanceSheet.xlsx
+++ b/HRMS/MstEmployeeTargetSyllabusSectionWisePerformanceSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t xml:space="preserve">Defination : </t>
   </si>
@@ -206,13 +206,16 @@
   </si>
   <si>
     <t>Table Name - MstEmployeeTargetSyllabusSectionWisePerformanceSheet</t>
+  </si>
+  <si>
+    <t>Note : The Colored column  denoted as dependent Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +236,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -248,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -271,11 +282,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,6 +346,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,7 +663,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection sqref="A1:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,14 +1195,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>27</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="A31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1858,9 +1915,10 @@
       <c r="F102" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HRMS/MstEmployeeTargetSyllabusSectionWisePerformanceSheet.xlsx
+++ b/HRMS/MstEmployeeTargetSyllabusSectionWisePerformanceSheet.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Note : The Colored column  denoted as dependent Table</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में कर्मचारी के लक्षित पाठ्यक्रम के अनुभागवार प्रदर्शन शीट का विवरण  है।</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F31"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -688,7 +688,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -706,22 +706,22 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -729,19 +729,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -749,16 +749,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -767,16 +767,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -785,17 +785,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -803,17 +803,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -821,17 +821,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -839,17 +839,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -857,17 +857,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -875,17 +875,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -893,17 +893,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -911,17 +911,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -929,17 +929,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -947,17 +947,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -965,17 +965,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,17 +983,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,17 +1001,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,17 +1019,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,17 +1037,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1055,17 +1055,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,17 +1073,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,17 +1091,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1109,17 +1109,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,17 +1127,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,17 +1145,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,17 +1163,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,22 +1181,22 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
